--- a/content/ensino/segundo-semestre-de-2022/mes-9-dia-25-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-9-dia-25-ava-matc65.xlsx
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -481,16 +481,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -525,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -676,25 +676,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -766,7 +766,7 @@
         <v>220216104</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -894,7 +894,7 @@
         <v>216117974</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -970,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1150,31 +1150,31 @@
         <v>220215670</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1182,10 +1182,10 @@
         <v>221120311</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1738,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
